--- a/DRE/cap05-Definicion_Topologia_Usuarios/IPT_ACRM_DRE_Cap05_Usuarios_150514.xlsx
+++ b/DRE/cap05-Definicion_Topologia_Usuarios/IPT_ACRM_DRE_Cap05_Usuarios_150514.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8085" tabRatio="786"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8085" tabRatio="786" firstSheet="2" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="KAM - RM - HQM" sheetId="1" r:id="rId1"/>
@@ -36,6 +36,34 @@
   </authors>
   <commentList>
     <comment ref="A3" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Listado multivalor: Office/ VPN / Internet / Off-Line</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C3" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Listado multivalor: Office/ VPN / Internet / Off-Line</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E3" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -308,7 +336,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="170">
   <si>
     <t>10% de su tiempo - (4hrs / semanales)</t>
   </si>
@@ -466,9 +494,6 @@
 Consulta datos globales KAM, RM, otras regiones y consolidados (informes)</t>
   </si>
   <si>
-    <t>AfterSales-Spares</t>
-  </si>
-  <si>
     <t>Office</t>
   </si>
   <si>
@@ -488,9 +513,6 @@
   <si>
     <t>Consulta de cuentas FV (Fichas de empresa)
 Consulta datos globales sobre su región (informes)</t>
-  </si>
-  <si>
-    <t>AfterSales-Repairs</t>
   </si>
   <si>
     <t>CRM Data Entry Assistant</t>
@@ -597,9 +619,6 @@
 Status proyectos y pipelines       </t>
   </si>
   <si>
-    <t xml:space="preserve"> AfterSales - Field</t>
-  </si>
-  <si>
     <t>Eduardo Cordovín, Andrés Pinilla, Jorge Martínez, Iñaki Gil, Juan Carlos Ramírez, ASF Italia, ASF Francia, ASF USA, Ingeteam Service</t>
   </si>
   <si>
@@ -913,9 +932,6 @@
   </si>
   <si>
     <t>Occupational Health and Safety Technician (OHS)</t>
-  </si>
-  <si>
-    <t>Backoffice (BO)</t>
   </si>
   <si>
     <t>Financial Management (FM)</t>
@@ -967,6 +983,18 @@
   </si>
   <si>
     <t>KAM Jesús Asiáin</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> After-sales Field</t>
+  </si>
+  <si>
+    <t>After-sales Spares</t>
+  </si>
+  <si>
+    <t>After-sales Repairs</t>
+  </si>
+  <si>
+    <t>Back-office (BO)</t>
   </si>
 </sst>
 </file>
@@ -1144,7 +1172,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1203,9 +1231,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1213,6 +1238,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1519,47 +1550,57 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView topLeftCell="D10" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="45.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="44.85546875" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="58" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="59.85546875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="51.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="45.85546875" style="3"/>
+    <col min="3" max="3" width="44.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="59.85546875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="44.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="51.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="45.85546875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="24"/>
+      <c r="E1" s="23" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="F1" s="23"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>18</v>
       </c>
@@ -1567,153 +1608,219 @@
         <v>19</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>148</v>
+        <v>77</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>149</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>152</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D5" s="1">
         <v>10</v>
       </c>
-      <c r="D5" s="1">
+      <c r="E5" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="F5" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B6" s="1">
         <v>10</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="D6" s="1">
         <v>5</v>
       </c>
-      <c r="D6" s="1">
+      <c r="E6" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="F6" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="105" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="105" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="D7" s="6" t="s">
+      <c r="C7" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F7" s="6" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="120" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="120" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="E8" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>28</v>
       </c>
       <c r="C9" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="E9" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="135" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
         <v>84</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="135" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>87</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>29</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>21</v>
       </c>
       <c r="C12" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E12" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C13" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="E13" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F13" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>17</v>
       </c>
@@ -1721,13 +1828,23 @@
         <v>31</v>
       </c>
       <c r="C14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="E14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F14" s="1" t="s">
         <v>39</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
@@ -1739,7 +1856,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="B14" sqref="A1:B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1750,17 +1867,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
-        <v>162</v>
-      </c>
-      <c r="B1" s="22"/>
+      <c r="A1" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="B1" s="21"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -1768,20 +1885,20 @@
         <v>18</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B5" s="16">
         <v>1</v>
@@ -1789,7 +1906,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B6" s="16">
         <v>0</v>
@@ -1797,31 +1914,31 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B10" s="16" t="s">
         <v>37</v>
@@ -1829,26 +1946,26 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -1856,7 +1973,7 @@
         <v>17</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C14" s="12"/>
       <c r="D14" s="13"/>
@@ -1875,8 +1992,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+    <sheetView topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection sqref="A1:B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="34.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1886,17 +2003,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
-        <v>47</v>
-      </c>
-      <c r="B1" s="22"/>
+      <c r="A1" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="21"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -1904,20 +2021,20 @@
         <v>18</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B5" s="16">
         <v>2</v>
@@ -1925,7 +2042,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B6" s="16">
         <v>0</v>
@@ -1933,58 +2050,58 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B7" s="16" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B9" s="16" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -1992,7 +2109,7 @@
         <v>17</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -2009,8 +2126,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:D12"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:D2"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2023,21 +2140,21 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B2" s="21" t="s">
-        <v>98</v>
-      </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
+      <c r="B2" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
     </row>
     <row r="3" spans="2:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B3" s="14" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.25">
@@ -2045,10 +2162,10 @@
         <v>9</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.25">
@@ -2056,10 +2173,10 @@
         <v>10</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.25">
@@ -2067,10 +2184,10 @@
         <v>11</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="7" spans="2:4" ht="30" x14ac:dyDescent="0.25">
@@ -2078,10 +2195,10 @@
         <v>12</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="8" spans="2:4" ht="30" x14ac:dyDescent="0.25">
@@ -2089,10 +2206,10 @@
         <v>14</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.25">
@@ -2100,32 +2217,32 @@
         <v>13</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D9" s="17" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B10" s="15" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D10" s="17" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B11" s="15" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D11" s="17" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="12" spans="2:4" ht="30" x14ac:dyDescent="0.25">
@@ -2133,10 +2250,10 @@
         <v>15</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -2151,8 +2268,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView zoomScale="124" zoomScaleNormal="124" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+    <sheetView topLeftCell="A10" zoomScale="124" zoomScaleNormal="124" workbookViewId="0">
+      <selection sqref="A1:B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2163,17 +2280,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
-        <v>40</v>
-      </c>
-      <c r="B1" s="22"/>
+      <c r="A1" s="20" t="s">
+        <v>167</v>
+      </c>
+      <c r="B1" s="21"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -2181,20 +2298,20 @@
         <v>18</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B5" s="1">
         <v>5</v>
@@ -2202,7 +2319,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B6" s="1">
         <v>4</v>
@@ -2210,39 +2327,39 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>29</v>
@@ -2250,7 +2367,7 @@
     </row>
     <row r="12" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>21</v>
@@ -2258,10 +2375,10 @@
     </row>
     <row r="13" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -2269,7 +2386,7 @@
         <v>17</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -2287,7 +2404,7 @@
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="B14" sqref="A1:B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2298,17 +2415,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
-        <v>46</v>
-      </c>
-      <c r="B1" s="22"/>
+      <c r="A1" s="20" t="s">
+        <v>168</v>
+      </c>
+      <c r="B1" s="21"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -2316,20 +2433,20 @@
         <v>18</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B5" s="1">
         <v>6</v>
@@ -2337,7 +2454,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B6" s="1">
         <v>4</v>
@@ -2345,47 +2462,47 @@
     </row>
     <row r="7" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>20</v>
@@ -2393,10 +2510,10 @@
     </row>
     <row r="13" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -2404,7 +2521,7 @@
         <v>17</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -2422,28 +2539,28 @@
   <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="B14" sqref="A1:B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="40.85546875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="78.85546875" style="8" customWidth="1"/>
+    <col min="2" max="2" width="49.42578125" style="8" customWidth="1"/>
     <col min="3" max="16384" width="11.42578125" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
-        <v>68</v>
-      </c>
-      <c r="B1" s="22"/>
+      <c r="A1" s="20" t="s">
+        <v>166</v>
+      </c>
+      <c r="B1" s="21"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -2451,20 +2568,20 @@
         <v>18</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B5" s="1">
         <v>9</v>
@@ -2472,53 +2589,53 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B6" s="1">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B9" s="11"/>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>20</v>
@@ -2526,10 +2643,10 @@
     </row>
     <row r="13" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -2537,7 +2654,7 @@
         <v>17</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -2554,8 +2671,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+    <sheetView topLeftCell="B6" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2569,14 +2686,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
-        <v>158</v>
-      </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="21" t="s">
-        <v>157</v>
-      </c>
-      <c r="D1" s="22"/>
+      <c r="A1" s="20" t="s">
+        <v>155</v>
+      </c>
+      <c r="B1" s="21"/>
+      <c r="C1" s="20" t="s">
+        <v>154</v>
+      </c>
+      <c r="D1" s="21"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -2597,38 +2714,38 @@
         <v>18</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B5" s="1">
         <v>0</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D5" s="1">
         <v>0</v>
@@ -2636,13 +2753,13 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B6" s="1">
         <v>0</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D6" s="1">
         <v>0</v>
@@ -2650,89 +2767,89 @@
     </row>
     <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E8" s="9" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>90</v>
-      </c>
       <c r="C11" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>87</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>37</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D12" s="1" t="s">
         <v>37</v>
@@ -2740,16 +2857,16 @@
     </row>
     <row r="13" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -2757,13 +2874,13 @@
         <v>17</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -2780,8 +2897,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+    <sheetView topLeftCell="A6" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection sqref="A1:B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2792,17 +2909,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
-        <v>161</v>
-      </c>
-      <c r="B1" s="22"/>
+      <c r="A1" s="20" t="s">
+        <v>157</v>
+      </c>
+      <c r="B1" s="21"/>
     </row>
     <row r="2" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -2810,20 +2927,20 @@
         <v>18</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B5" s="1">
         <v>5</v>
@@ -2831,7 +2948,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B6" s="1">
         <v>4</v>
@@ -2839,47 +2956,47 @@
     </row>
     <row r="7" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>37</v>
@@ -2887,7 +3004,7 @@
     </row>
     <row r="13" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>38</v>
@@ -2898,7 +3015,7 @@
         <v>17</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -2915,8 +3032,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+    <sheetView topLeftCell="A10" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection sqref="A1:B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2927,10 +3044,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
-        <v>159</v>
-      </c>
-      <c r="B1" s="22"/>
+      <c r="A1" s="20" t="s">
+        <v>169</v>
+      </c>
+      <c r="B1" s="21"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -2945,12 +3062,12 @@
         <v>18</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>6</v>
@@ -2958,7 +3075,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B5" s="1">
         <v>6</v>
@@ -2966,7 +3083,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B6" s="1">
         <v>3</v>
@@ -2974,23 +3091,23 @@
     </row>
     <row r="7" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>7</v>
@@ -2998,23 +3115,23 @@
     </row>
     <row r="10" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>37</v>
@@ -3022,7 +3139,7 @@
     </row>
     <row r="13" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>0</v>
@@ -3033,7 +3150,7 @@
         <v>17</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -3050,7 +3167,7 @@
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="B14" sqref="A1:B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3062,10 +3179,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
-        <v>160</v>
-      </c>
-      <c r="B1" s="22"/>
+      <c r="A1" s="20" t="s">
+        <v>156</v>
+      </c>
+      <c r="B1" s="21"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -3080,20 +3197,20 @@
         <v>18</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B5" s="1">
         <v>5</v>
@@ -3102,7 +3219,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B6" s="1">
         <v>1</v>
@@ -3110,47 +3227,47 @@
     </row>
     <row r="7" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>37</v>
@@ -3158,7 +3275,7 @@
     </row>
     <row r="13" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>8</v>
@@ -3169,12 +3286,12 @@
         <v>17</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="C15" s="10" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -3192,7 +3309,7 @@
   <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="B14" sqref="A1:B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3203,17 +3320,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="22"/>
+      <c r="B1" s="21"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -3221,20 +3338,20 @@
         <v>18</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B5" s="1">
         <v>1</v>
@@ -3242,55 +3359,55 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B6" s="19" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>37</v>
@@ -3298,10 +3415,10 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -3309,7 +3426,7 @@
         <v>17</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C14" s="12"/>
       <c r="D14" s="13"/>
